--- a/biology/Botanique/Pentaglottis_sempervirens/Pentaglottis_sempervirens.xlsx
+++ b/biology/Botanique/Pentaglottis_sempervirens/Pentaglottis_sempervirens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pentaglottis sempervirens, la buglosse toujours verte, est une plante herbacée vivace de la famille des Boraginacées.
 Synonymes
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante dressée, ramifiée, hispide, atteignant 100 cm. Feuilles ovales jusqu'à 30 cm de long, les inférieures pétiolées. Fleurs bleu vif, de 8 à 10 mm de large avec tache centrale blanche, s'épanouissant d'avril à octobre selon la localisation.
 </t>
@@ -546,9 +560,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Haies, lisières des bois, bords des routes, originaire du sud de l'Europe occidentale. En Belgique, très rare et probablement non indigène[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haies, lisières des bois, bords des routes, originaire du sud de l'Europe occidentale. En Belgique, très rare et probablement non indigène.
 </t>
         </is>
       </c>
